--- a/DateBase/orders/Dang Nguyen_2024-11-9.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-11-9.xlsx
@@ -761,6 +761,9 @@
       <c r="C39" t="str">
         <v>55_玛丽_undefined_Gerbera L._10/20stems</v>
       </c>
+      <c r="F39" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="40">
       <c r="C40" t="str">
@@ -832,7 +835,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>010302010101015201821810703030101010151510101551810101510101010101851110000</v>
+        <v>010302010101015201821810703030101010151510101551810101510101010101851110100</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-11-9.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-11-9.xlsx
@@ -769,6 +769,9 @@
       <c r="C40" t="str">
         <v>7_翠绿洋桔梗_Dark Green Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
+      <c r="F40" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="41">
       <c r="C41" t="str">
@@ -835,7 +838,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>010302010101015201821810703030101010151510101551810101510101010101851110100</v>
+        <v>010302010101015201821810703030101010151510101551810101510101010101851110110</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-11-9.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-11-9.xlsx
@@ -766,6 +766,9 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="str">
+        <v>7</v>
+      </c>
       <c r="C40" t="str">
         <v>7_翠绿洋桔梗_Dark Green Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
@@ -776,6 +779,9 @@
     <row r="41">
       <c r="C41" t="str">
         <v>7_翠绿洋桔梗_Dark Green Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F41" t="str">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -838,7 +844,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>010302010101015201821810703030101010151510101551810101510101010101851110110</v>
+        <v>010302010101015201821810703030101010151510101551810101510101010101851110111</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-11-9.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-11-9.xlsx
@@ -777,6 +777,9 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="str">
+        <v>8</v>
+      </c>
       <c r="C41" t="str">
         <v>7_翠绿洋桔梗_Dark Green Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>

--- a/DateBase/orders/Dang Nguyen_2024-11-9.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-11-9.xlsx
@@ -849,6 +849,9 @@
       <c r="G2" t="str">
         <v>010302010101015201821810703030101010151510101551810101510101010101851110111</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
